--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel_Huet\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Copia Descargas\Escritorio\documentos SCHRTyC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6201EB83-F80F-4C23-822E-554B5D8500C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8934B02-B29E-4E70-9B53-DE0D4D974653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="3690" windowWidth="15375" windowHeight="8325" xr2:uid="{C144204C-2551-4A5C-9BC0-EB7FAB6BCDF2}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="15375" windowHeight="8325" xr2:uid="{C144204C-2551-4A5C-9BC0-EB7FAB6BCDF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>idnomina</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>nombre</t>
+  </si>
+  <si>
+    <t>Datos</t>
   </si>
 </sst>
 </file>
@@ -422,7 +425,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,6 +563,9 @@
       <c r="C9" t="s">
         <v>3</v>
       </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
